--- a/统计.xlsx
+++ b/统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwi01/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuhao/WKInternetBarClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -56,33 +56,6 @@
     <t>状态</t>
     <rPh sb="0" eb="1">
       <t>zhuang t</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可鲁网吧</t>
-    <rPh sb="0" eb="1">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>w b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-40人</t>
-    <rPh sb="5" eb="6">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <rPh sb="0" eb="1">
-      <t>dai ding</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,26 +150,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王钶</t>
-    <rPh sb="0" eb="1">
-      <t>w k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考察时间</t>
     <rPh sb="0" eb="1">
       <t>kao c</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>shi j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日</t>
-    <rPh sb="0" eb="1">
-      <t>zhou ri</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +318,134 @@
   </si>
   <si>
     <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪门网吧</t>
+    <rPh sb="0" eb="1">
+      <t>hong men</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日，周一，周二</t>
+    <rPh sb="0" eb="1">
+      <t>zhou ri</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhou er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <rPh sb="0" eb="1">
+      <t>zhou yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网吧面积太小，周边网吧多竞争激烈</t>
+    <rPh sb="0" eb="1">
+      <t>wang b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tai x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou bian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>w b</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jing z</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ji l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大渡口网吧</t>
+  </si>
+  <si>
+    <t>大渡口海宁皮革城</t>
+    <rPh sb="3" eb="4">
+      <t>hai ning</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pi ge cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.ganji.com/fang6/2484654373x.htm</t>
+  </si>
+  <si>
+    <t>英皇网吧</t>
+    <rPh sb="0" eb="1">
+      <t>ying huang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 渝北空港新城福畅路</t>
+  </si>
+  <si>
+    <t>http://cq.ganji.com/fang6/2613881788x.htm</t>
+  </si>
+  <si>
+    <t>30左右</t>
+    <rPh sb="2" eb="3">
+      <t>z you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二下午7-8点</t>
+    <rPh sb="0" eb="1">
+      <t>zhou er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia w</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,6 +472,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4B4B4B"/>
       <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
@@ -411,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,7 +515,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,19 +797,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="4" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="8" width="10.83203125" style="2"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -719,8 +817,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -732,175 +830,224 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+      <c r="D7" s="1">
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuhao/WKInternetBarClub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwi01/WKInternetBarClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -447,13 +447,56 @@
       <t>dian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春晖路网吧</t>
+    <rPh sb="0" eb="1">
+      <t>chun hui l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/29838403128371x.shtml?psid=147344011196267916942197531&amp;entinfo=29838403128371_0&amp;from=1-list-23&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5c9d-1ef5-56c2d88222c0&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>大渡口春晖路</t>
+    <rPh sb="0" eb="1">
+      <t>da du k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chun hui l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四公里网吧</t>
+    <rPh sb="0" eb="1">
+      <t>si gong li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四公里师范学院对面</t>
+    <rPh sb="0" eb="1">
+      <t>si gong li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/26421014055087x.shtml?psid=125081883196268503790506822&amp;entinfo=26421014055087_0&amp;from=1-list-8&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5fa6-36ae-dd1e9b94d1fe&amp;ClickID=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,6 +528,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -506,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,7 +566,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +865,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -823,13 +874,13 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -840,7 +891,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -849,13 +900,13 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -866,7 +917,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -875,13 +926,13 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -889,7 +940,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -898,15 +949,16 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -915,15 +967,16 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -932,15 +985,16 @@
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -949,13 +1003,13 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -966,7 +1020,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -975,15 +1029,16 @@
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -992,15 +1047,16 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1009,15 +1065,16 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1026,15 +1083,16 @@
       <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1043,12 +1101,49 @@
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="2040" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="8000" yWindow="1540" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -449,9 +449,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>春晖路网吧</t>
-    <rPh sb="0" eb="1">
+    <t>http://cq.58.com/shangpu/29838403128371x.shtml?psid=147344011196267916942197531&amp;entinfo=29838403128371_0&amp;from=1-list-23&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5c9d-1ef5-56c2d88222c0&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>大渡口春晖路</t>
+    <rPh sb="0" eb="1">
+      <t>da du k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>chun hui l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四公里网吧</t>
+    <rPh sb="0" eb="1">
+      <t>si gong li</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>w b</t>
@@ -459,37 +472,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://cq.58.com/shangpu/29838403128371x.shtml?psid=147344011196267916942197531&amp;entinfo=29838403128371_0&amp;from=1-list-23&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5c9d-1ef5-56c2d88222c0&amp;ClickID=3</t>
-  </si>
-  <si>
-    <t>大渡口春晖路</t>
-    <rPh sb="0" eb="1">
-      <t>da du k</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chun hui l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四公里网吧</t>
+    <t>四公里师范学院对面</t>
     <rPh sb="0" eb="1">
       <t>si gong li</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/26421014055087x.shtml?psid=125081883196268503790506822&amp;entinfo=26421014055087_0&amp;from=1-list-8&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5fa6-36ae-dd1e9b94d1fe&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>浪琴网吧</t>
+    <rPh sb="0" eb="1">
+      <t>lang qin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>w b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四公里师范学院对面</t>
-    <rPh sb="0" eb="1">
-      <t>si gong li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cq.58.com/shangpu/26421014055087x.shtml?psid=125081883196268503790506822&amp;entinfo=26421014055087_0&amp;from=1-list-8&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5fa6-36ae-dd1e9b94d1fe&amp;ClickID=3</t>
+    <t>渝北鸳鸯网吧</t>
+  </si>
+  <si>
+    <t>丹鹤小区二期</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30376726263473x.shtml?psid=136376272196270722263149174&amp;entinfo=30376726263473_0&amp;from=3-list-9&amp;iuType=p_0&amp;PGTID=0d306b5f-0002-53fd-d6f1-40cc02d4863f&amp;ClickID=1</t>
+  </si>
+  <si>
+    <t>易玩网吧</t>
+    <rPh sb="2" eb="3">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹龙路 东原亲亲里</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30365702070316x.shtml?psid=139154818196271571123192434&amp;entinfo=30365702070316_0&amp;from=1-list-6&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-c211-c0bf-891434f827a9&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/27424012936652x.shtml?psid=133351990196279045441522086&amp;entinfo=27424012936652_0&amp;from=1-list-6&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-59a6-5456-70493475fe6e&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>大坪网吧</t>
+    <rPh sb="0" eb="1">
+      <t>da ping</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五一技校旁</t>
   </si>
 </sst>
 </file>
@@ -554,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,6 +609,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,285 +907,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="6">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="1540" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="5440" yWindow="1580" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -301,9 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兰花小区网吧</t>
-  </si>
-  <si>
     <t>http://cq.58.com/shangpu/29207527098297x.shtml?psid=139511575196256768468446662&amp;entinfo=29207527098297_0&amp;from=4-list-13&amp;iuType=p_0&amp;PGTID=0d306b5f-0002-5641-9040-4f8598add3e5&amp;ClickID=2</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
       <t>ji l</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大渡口网吧</t>
   </si>
   <si>
     <t>大渡口海宁皮革城</t>
@@ -528,6 +522,47 @@
   </si>
   <si>
     <t>五一技校旁</t>
+  </si>
+  <si>
+    <t>第六元素</t>
+    <rPh sb="0" eb="1">
+      <t>di liu yuan su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥达网咖</t>
+    <rPh sb="2" eb="3">
+      <t>wang ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永兴网吧</t>
+    <rPh sb="0" eb="1">
+      <t>yong xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴科五路</t>
+    <rPh sb="0" eb="1">
+      <t>xing ke</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30301645598284x.shtml?psid=179188213196327533187617645&amp;entinfo=30301645598284_0&amp;from=1-list-19&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5cd9-da1f-0ecc3af07913&amp;ClickID=3</t>
   </si>
 </sst>
 </file>
@@ -890,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,7 +969,7 @@
     </row>
     <row r="2" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -946,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>24</v>
@@ -969,16 +1004,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -996,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1056,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1082,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1102,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1110,13 +1145,13 @@
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
@@ -1130,19 +1165,19 @@
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1150,13 +1185,13 @@
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -1170,13 +1205,13 @@
     </row>
     <row r="13" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
@@ -1190,19 +1225,19 @@
     </row>
     <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1210,13 +1245,13 @@
     </row>
     <row r="15" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -1230,36 +1265,47 @@
     </row>
     <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1580" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="8000" yWindow="1360" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -563,6 +563,150 @@
   </si>
   <si>
     <t>http://cq.58.com/shangpu/30301645598284x.shtml?psid=179188213196327533187617645&amp;entinfo=30301645598284_0&amp;from=1-list-19&amp;iuType=j_2&amp;PGTID=0d306b5f-0002-5cd9-da1f-0ecc3af07913&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>王，何，陈</t>
+    <rPh sb="0" eb="1">
+      <t>w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网吧面积中等，周边网吧少竞争小</t>
+    <rPh sb="0" eb="1">
+      <t>wang b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong deng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou bian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>w b</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jing z</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30466307241012x.shtml?psid=117583439196359024502575992&amp;entinfo=30466307241012_0&amp;from=2-list-9&amp;iuType=p_0&amp;PGTID=0d306b5f-0002-5736-3016-cda4f148640a&amp;ClickID=3</t>
+  </si>
+  <si>
+    <t>闪亮网吧</t>
+    <rPh sb="0" eb="1">
+      <t>shan l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江北石马河金科十年城</t>
+    <rPh sb="5" eb="6">
+      <t>jin ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi nian cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌托邦网络联盟</t>
+    <rPh sb="0" eb="1">
+      <t>wu tuo bang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>w luo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江北石马河新城新苑</t>
+    <rPh sb="0" eb="1">
+      <t>jiang bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi ma he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30416544007246x.shtml</t>
+  </si>
+  <si>
+    <t>盈盈网吧</t>
+  </si>
+  <si>
+    <t>海棠溪街</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30513529699132x.shtml?psid=154197427196404490181472344&amp;entinfo=30513529699132_0&amp;from=2-list-25&amp;iuType=p_0&amp;PGTID=0d306b5f-0002-500f-c18f-64a27fc90447&amp;ClickID=6</t>
+  </si>
+  <si>
+    <t>20-30⬆️-40⬇️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一，周二，周三，周五，周六</t>
+    <rPh sb="0" eb="1">
+      <t>zhou yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhou san</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhou wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhou liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋业城车站附近网吧</t>
+    <rPh sb="5" eb="6">
+      <t>f j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30511672862269x.shtml?psid=154197427196404490181472344&amp;entinfo=30511672862269_0&amp;from=2-list-12&amp;iuType=p_0&amp;PGTID=0d306b5f-0002-500f-c18f-64a27fc90447&amp;ClickID=1</t>
   </si>
 </sst>
 </file>
@@ -627,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,7 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E22" activeCellId="1" sqref="E21 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,14 +1357,20 @@
         <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -1264,7 +1413,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1273,18 +1422,21 @@
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1296,9 +1448,10 @@
       <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1307,6 +1460,81 @@
       <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="1360" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="8000" yWindow="3640" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -707,13 +707,25 @@
   </si>
   <si>
     <t>http://cq.58.com/shangpu/30511672862269x.shtml?psid=154197427196404490181472344&amp;entinfo=30511672862269_0&amp;from=2-list-12&amp;iuType=p_0&amp;PGTID=0d306b5f-0002-500f-c18f-64a27fc90447&amp;ClickID=1</t>
+  </si>
+  <si>
+    <t>开心网苑</t>
+  </si>
+  <si>
+    <t>渝中区大坪河运校</t>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/30524442346701x.shtml?psid=168604366196426585210103518&amp;entinfo=30524442346701_0&amp;from=3-list-19&amp;iuType=p_1&amp;PGTID=0d306b5f-0002-5f28-e7d8-57dc50ceb606&amp;ClickID=2</t>
+  </si>
+  <si>
+    <t>开花树网吧</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -744,11 +756,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -785,11 +792,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="1" sqref="E21 E22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,312 +1092,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1399,142 +1406,180 @@
       <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="3640" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="7880" yWindow="4100" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
@@ -719,6 +719,26 @@
   </si>
   <si>
     <t>开花树网吧</t>
+  </si>
+  <si>
+    <t>薄荷网吧</t>
+    <rPh sb="0" eb="1">
+      <t>bo he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>w b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江津</t>
+    <rPh sb="0" eb="1">
+      <t>j j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cq.58.com/shangpu/29981901817544x.shtml?psid=152238068196440235122729860&amp;entinfo=29981901817544_0&amp;from=2-list-10&amp;iuType=p_0&amp;PGTID=0d306b5f-0002-5453-e628-001c32d2be20&amp;ClickID=1</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1581,6 +1601,17 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
+    <row r="24" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2620" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="4420" windowWidth="20800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>偷袭</t>
     <rPh sb="0" eb="1">
@@ -44,13 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强力</t>
-    <rPh sb="0" eb="1">
-      <t>qiang li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连击</t>
     <rPh sb="0" eb="1">
       <t>lian ji</t>
@@ -97,13 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金刚石</t>
-    <rPh sb="0" eb="1">
-      <t>jin gang shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>舍身技</t>
     <rPh sb="0" eb="1">
       <t>she shen ji</t>
@@ -112,13 +90,6 @@
   </si>
   <si>
     <t>法爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜光珠</t>
-    <rPh sb="0" eb="1">
-      <t>ye guang zhu</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,17 +117,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法宝精华</t>
-    <rPh sb="0" eb="1">
-      <t>fa bao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jing hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000-18000</t>
+    <t>arear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四法青云</t>
+    <rPh sb="0" eb="1">
+      <t>si fa qing y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月相</t>
+    <rPh sb="0" eb="1">
+      <t>yue xiang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +171,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,14 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,7 +235,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,323 +533,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="6"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="11" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
         <v>154999</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45000</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="C2" s="3">
         <v>148765</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="D2" s="3">
         <v>172222</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="E2" s="3">
+        <v>409999</v>
+      </c>
+      <c r="F2" s="4">
         <v>321456</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <v>18900</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>409999</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="G2" s="4">
+        <v>197777</v>
+      </c>
+      <c r="H2" s="4">
+        <v>198888</v>
+      </c>
+      <c r="I2" s="3">
+        <v>238888</v>
+      </c>
+      <c r="J2" s="2">
+        <v>89999</v>
+      </c>
+      <c r="K2" s="3">
         <v>100000</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>197777</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>198888</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>89999</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="L2" s="3">
         <v>100000</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="M2" s="1">
         <v>93000</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="N2" s="1">
+        <v>109999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
-        <v>109999</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B3" s="3">
+        <v>133333</v>
+      </c>
+      <c r="C3" s="3">
+        <v>188888</v>
+      </c>
+      <c r="D3" s="3">
+        <v>166666</v>
+      </c>
+      <c r="E3" s="3">
+        <v>410000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>111111</v>
+      </c>
+      <c r="G3" s="5">
+        <v>126666</v>
+      </c>
+      <c r="H3" s="5">
+        <v>139999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>300000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>111111</v>
+      </c>
+      <c r="K3" s="6">
+        <v>130000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>80000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N3" s="6">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5">
-        <v>238888</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="A17" s="9"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/统计.xlsx
+++ b/统计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwi01/WKInternetBarClub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuhao/WKInternetBarClub/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>偷袭</t>
     <rPh sb="0" eb="1">
@@ -131,6 +131,33 @@
     <t>月相</t>
     <rPh sb="0" eb="1">
       <t>yue xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福群像</t>
+    <rPh sb="0" eb="1">
+      <t>xing fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qun xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那时花开</t>
+    <rPh sb="0" eb="1">
+      <t>na shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致青春</t>
+    <rPh sb="0" eb="1">
+      <t>zhi qing c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,7 +563,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,19 +710,136 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>158888</v>
+      </c>
+      <c r="C4" s="3">
+        <v>270000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>183333</v>
+      </c>
+      <c r="E4" s="3">
+        <v>425555</v>
+      </c>
+      <c r="F4" s="4">
+        <v>180000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>159999</v>
+      </c>
+      <c r="H4" s="5">
+        <v>144444</v>
+      </c>
+      <c r="I4" s="6">
+        <v>355555</v>
+      </c>
+      <c r="J4" s="6">
+        <v>130000</v>
+      </c>
+      <c r="K4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>60000</v>
+      </c>
+      <c r="M4" s="6">
+        <v>50000</v>
+      </c>
+      <c r="N4" s="6">
+        <v>120000</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>158888</v>
+      </c>
+      <c r="C5" s="3">
+        <v>198000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>384444</v>
+      </c>
+      <c r="F5" s="4">
+        <v>149999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>277777</v>
+      </c>
+      <c r="H5" s="5">
+        <v>130000</v>
+      </c>
+      <c r="I5" s="6">
+        <v>240000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>127777</v>
+      </c>
+      <c r="K5" s="6">
+        <v>138888</v>
+      </c>
+      <c r="L5" s="6">
+        <v>95000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>55555</v>
+      </c>
+      <c r="N5" s="6">
+        <v>160000</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>158888</v>
+      </c>
+      <c r="C6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>189999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>400000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>155555</v>
+      </c>
+      <c r="G6" s="5">
+        <v>196666</v>
+      </c>
+      <c r="H6" s="5">
+        <v>144444</v>
+      </c>
+      <c r="I6" s="6">
+        <v>281111</v>
+      </c>
+      <c r="J6" s="6">
+        <v>181111</v>
+      </c>
+      <c r="K6" s="6">
+        <v>150000</v>
+      </c>
+      <c r="L6" s="6">
+        <v>100000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>79999</v>
+      </c>
+      <c r="N6" s="6">
+        <v>170000</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
